--- a/implementation_table.xlsx
+++ b/implementation_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rahija\Dropbox\monitorFrame\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahija\Dropbox\monitorFrame\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="63">
   <si>
     <t>Topics</t>
   </si>
@@ -160,20 +160,62 @@
     <t>v1 - In system</t>
   </si>
   <si>
-    <t>Research or TA ?</t>
-  </si>
-  <si>
     <t>v2 - in system</t>
   </si>
   <si>
     <t>ADD?</t>
+  </si>
+  <si>
+    <t>v2 - Not in system</t>
+  </si>
+  <si>
+    <t>Focal point</t>
+  </si>
+  <si>
+    <t>AP</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>MR</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>NG</t>
+  </si>
+  <si>
+    <t>CF/MR</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>MM</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>CD</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>v2- In system</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -202,6 +244,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -223,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -246,12 +296,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -259,6 +320,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -564,356 +627,491 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:D44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="47.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C2" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A40" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="B43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="B44" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>47</v>
+      <c r="C44" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
